--- a/biology/Zoologie/Antirrhea_phasiana/Antirrhea_phasiana.xlsx
+++ b/biology/Zoologie/Antirrhea_phasiana/Antirrhea_phasiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhea phasiana est une espèce de lépidoptères de la famille des Nymphalidés et du genre Antirrhea.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antirrhea phasiana a été décrit par Arthur Gardiner Butler en 1870[1].
-Nom vernaculaire
-Antirrhea phasiana se nomme Phasiana Brown Morpho en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea phasiana a été décrit par Arthur Gardiner Butler en 1870.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antirrhea phasiana est un grand papillon aux ailes antérieures à bord externe légèrement concave et apex coupé, aux ailes postérieures en pointe formant une queue. Le dessus est marron avec une large bande submarginale cuivre contenant une ligne de gros ocelles noirs pupillés de blanc, trois très gros aux ailes antérieures et quatre aux ailes postérieures.
-Le revers est marron marbré avec une discrète ligne de points blancs.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea phasiana se nomme Phasiana Brown Morpho en anglais.
 </t>
         </is>
       </c>
@@ -573,12 +590,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea phasiana est un grand papillon aux ailes antérieures à bord externe légèrement concave et apex coupé, aux ailes postérieures en pointe formant une queue. Le dessus est marron avec une large bande submarginale cuivre contenant une ligne de gros ocelles noirs pupillés de blanc, trois très gros aux ailes antérieures et quatre aux ailes postérieures.
+Le revers est marron marbré avec une discrète ligne de points blancs.
+</t>
         </is>
       </c>
     </row>
@@ -606,12 +627,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antirrhea phasiana est présent en Amérique du Sud sous forme de deux isolats, un au Venezuela et un au Pérou[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea phasiana est présent en Amérique du Sud sous forme de deux isolats, un au Venezuela et un au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antirrhea_phasiana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_phasiana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Antirrhea phasiana, sur Wikimedia CommonsAntirrhea phasiana, sur Wikispecies
 </t>
